--- a/Assets/Dialogs/DialogDB_Pink.xlsx
+++ b/Assets/Dialogs/DialogDB_Pink.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b4d1236af1f427cd/Documents/GitHub/LGHNH_Project/Assets/Dialogs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\230831_2146\LGHNH_Project\Assets\Dialogs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="8_{1025651E-64B2-458F-A48A-C1CD55A6A39D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29EB5BF7-6497-45AF-AA6D-A3C91B4D3EE0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75079F4D-E3B6-47A4-8738-B8C306B9DEE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="10350" windowWidth="24240" windowHeight="13020" xr2:uid="{7CC1A35C-F74C-4129-8D27-6AD00BFB75AA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{7CC1A35C-F74C-4129-8D27-6AD00BFB75AA}"/>
   </bookViews>
   <sheets>
     <sheet name="pink" sheetId="1" r:id="rId1"/>
@@ -357,14 +357,13 @@
   </si>
   <si>
     <t>여행아이</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -423,11 +422,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="&quot;Arial Unicode MS&quot;"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -439,6 +433,19 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -462,18 +469,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor theme="2" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.14999847407452621"/>
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -492,13 +499,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -514,30 +551,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -551,11 +572,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -572,10 +623,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -877,8 +924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56AFC252-D377-40F1-81FE-416CE32D48DC}">
   <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="F78" sqref="F78"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="H77" sqref="H77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -917,1540 +964,1543 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="17.5" thickBot="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="12">
         <v>1</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" ht="17.5" thickBot="1">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="8">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="14">
         <v>1</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="9" t="s">
+      <c r="G3" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" ht="17.5" thickBot="1">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="8">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="14">
         <v>1</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="9" t="s">
+      <c r="G4" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" ht="17.5" thickBot="1">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="8">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="14">
         <v>1</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="9" t="s">
+      <c r="G5" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" ht="17.5" thickBot="1">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="8">
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="14">
         <v>1</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="9" t="s">
+      <c r="G6" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="15" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" ht="17.5" thickBot="1">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="8">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="14">
         <v>1</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="9" t="s">
+      <c r="G7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" ht="17.5" thickBot="1">
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="8">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="14">
         <v>1</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="9" t="s">
+      <c r="G8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" ht="17.5" thickBot="1">
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="8">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="14">
         <v>1</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="10" t="s">
+      <c r="G9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" ht="17.5" thickBot="1">
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="8">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="14">
         <v>1</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="9" t="s">
+      <c r="G10" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" ht="17.5" thickBot="1">
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="18" t="s">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="14">
         <v>2</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="9" t="s">
+      <c r="G11" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" ht="17.5" thickBot="1">
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="8">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="14">
         <v>2</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" s="9" t="s">
+      <c r="G12" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" ht="17.5" thickBot="1">
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="16" t="s">
+      <c r="B13" s="9"/>
+      <c r="C13" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21" t="s">
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" ht="17.5" thickBot="1">
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8">
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="14">
         <v>3</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="G14" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H14" s="9" t="s">
+      <c r="G14" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" ht="17.5" thickBot="1">
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8">
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="14">
         <v>3</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H15" s="11" t="s">
+      <c r="G15" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" ht="17.5" thickBot="1">
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8">
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="14">
         <v>3</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H16" s="9" t="s">
+      <c r="G16" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" ht="17.5" thickBot="1">
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="7" t="s">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="14">
         <v>3</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H17" s="9" t="s">
+      <c r="G17" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" s="15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" ht="17.5" thickBot="1">
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="8">
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="14">
         <v>3</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="H18" s="15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" ht="17.5" thickBot="1">
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="8">
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="14">
         <v>3</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="G19" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H19" s="9" t="s">
+      <c r="G19" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="15" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" ht="17.5" thickBot="1">
       <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="8">
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="14">
         <v>3</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="G20" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H20" s="9" t="s">
+      <c r="G20" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" ht="17.5" thickBot="1">
       <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="14">
         <v>3</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G21" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H21" s="9" t="s">
+      <c r="G21" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" s="15" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" ht="17.5" thickBot="1">
       <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8">
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="14">
         <v>3</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="G22" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H22" s="9" t="s">
+      <c r="G22" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" ht="17.5" thickBot="1">
       <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8">
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="14">
         <v>3</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H23" s="9" t="s">
+      <c r="G23" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" s="15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" ht="17.5" thickBot="1">
       <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="18" t="s">
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="14">
         <v>3</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="G24" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H24" s="9" t="s">
+      <c r="G24" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H24" s="15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" ht="17.5" thickBot="1">
       <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="8">
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="14">
         <v>4</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="G25" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H25" s="9" t="s">
+      <c r="G25" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" s="15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" ht="17.5" thickBot="1">
       <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="8">
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="14">
         <v>4</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H26" s="9" t="s">
+      <c r="G26" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" s="15" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" ht="17.5" thickBot="1">
       <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="8">
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="14">
         <v>4</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="G27" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H27" s="10" t="s">
+      <c r="H27" s="16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" ht="17.5" thickBot="1">
       <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="8">
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="14">
         <v>4</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="G28" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H28" s="9" t="s">
+      <c r="G28" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" s="15" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" ht="17.5" thickBot="1">
       <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="8">
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="14">
         <v>4</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="F29" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="G29" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H29" s="9" t="s">
+      <c r="G29" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H29" s="15" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" ht="17.5" thickBot="1">
       <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="8">
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="14">
         <v>4</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="F30" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="G30" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H30" s="9" t="s">
+      <c r="G30" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H30" s="15" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" ht="17.5" thickBot="1">
       <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="16" t="s">
+      <c r="B31" s="9"/>
+      <c r="C31" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D31" s="18"/>
-      <c r="E31" s="8">
+      <c r="D31" s="10"/>
+      <c r="E31" s="14">
         <v>4</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="F31" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="G31" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H31" s="9" t="s">
+      <c r="G31" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H31" s="15" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" ht="17.5" thickBot="1">
       <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="18" t="s">
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E32" s="14">
         <v>4</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="F32" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="G32" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H32" s="10" t="s">
+      <c r="G32" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H32" s="16" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" ht="17.5" thickBot="1">
       <c r="A33" s="3">
         <v>32</v>
       </c>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="8">
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="14">
         <v>5</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="F33" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="G33" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H33" s="10" t="s">
+      <c r="G33" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H33" s="16" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" ht="17.5" thickBot="1">
       <c r="A34" s="3">
         <v>33</v>
       </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="8">
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="14">
         <v>5</v>
       </c>
-      <c r="F34" s="8" t="s">
+      <c r="F34" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="G34" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H34" s="11" t="s">
+      <c r="G34" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H34" s="18" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" ht="17.5" thickBot="1">
       <c r="A35" s="3">
         <v>34</v>
       </c>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="8">
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="14">
         <v>5</v>
       </c>
-      <c r="F35" s="8" t="s">
+      <c r="F35" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="G35" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H35" s="11" t="s">
+      <c r="G35" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H35" s="18" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" ht="17.5" thickBot="1">
       <c r="A36" s="3">
         <v>35</v>
       </c>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="8">
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="14">
         <v>5</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="F36" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="G36" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H36" s="11" t="s">
+      <c r="G36" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H36" s="18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" ht="17.5" thickBot="1">
       <c r="A37" s="3">
         <v>36</v>
       </c>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="8">
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="14">
         <v>5</v>
       </c>
-      <c r="F37" s="8" t="s">
+      <c r="F37" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G37" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H37" s="11" t="s">
+      <c r="G37" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H37" s="18" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" ht="17.5" thickBot="1">
       <c r="A38" s="3">
         <v>37</v>
       </c>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="8">
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="14">
         <v>5</v>
       </c>
-      <c r="F38" s="8" t="s">
+      <c r="F38" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="G38" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H38" s="11" t="s">
+      <c r="G38" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H38" s="18" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" ht="17.5" thickBot="1">
       <c r="A39" s="3">
         <v>38</v>
       </c>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="8">
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="14">
         <v>5</v>
       </c>
-      <c r="F39" s="8" t="s">
+      <c r="F39" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="G39" s="12" t="s">
+      <c r="G39" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H39" s="13" t="s">
+      <c r="H39" s="20" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" ht="17.5" thickBot="1">
       <c r="A40" s="3">
         <v>39</v>
       </c>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="8">
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="14">
         <v>5</v>
       </c>
-      <c r="F40" s="8" t="s">
+      <c r="F40" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="G40" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H40" s="11" t="s">
+      <c r="G40" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H40" s="18" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" ht="17.5" thickBot="1">
       <c r="A41" s="3">
         <v>40</v>
       </c>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="8">
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="14">
         <v>5</v>
       </c>
-      <c r="F41" s="8" t="s">
+      <c r="F41" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="G41" s="12" t="s">
+      <c r="G41" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H41" s="11" t="s">
+      <c r="H41" s="18" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" ht="17.5" thickBot="1">
       <c r="A42" s="3">
         <v>41</v>
       </c>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="8">
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="14">
         <v>5</v>
       </c>
-      <c r="F42" s="8" t="s">
+      <c r="F42" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="G42" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H42" s="13" t="s">
+      <c r="G42" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="H42" s="20" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" ht="17.5" thickBot="1">
       <c r="A43" s="3">
         <v>42</v>
       </c>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="8">
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="14">
         <v>5</v>
       </c>
-      <c r="F43" s="8" t="s">
+      <c r="F43" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="G43" s="12" t="s">
+      <c r="G43" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H43" s="11" t="s">
+      <c r="H43" s="18" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" ht="17.5" thickBot="1">
       <c r="A44" s="3">
         <v>43</v>
       </c>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="8">
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="14">
         <v>5</v>
       </c>
-      <c r="F44" s="8" t="s">
+      <c r="F44" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="G44" s="12" t="s">
+      <c r="G44" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H44" s="11" t="s">
+      <c r="H44" s="18" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" ht="17.5" thickBot="1">
       <c r="A45" s="3">
         <v>44</v>
       </c>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="8">
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="14">
         <v>5</v>
       </c>
-      <c r="F45" s="8" t="s">
+      <c r="F45" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="G45" s="12" t="s">
+      <c r="G45" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H45" s="13" t="s">
+      <c r="H45" s="20" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" ht="17.5" thickBot="1">
       <c r="A46" s="3">
         <v>45</v>
       </c>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="8">
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="14">
         <v>5</v>
       </c>
-      <c r="F46" s="8" t="s">
+      <c r="F46" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="G46" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H46" s="13" t="s">
+      <c r="G46" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H46" s="20" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" ht="17.5" thickBot="1">
       <c r="A47" s="3">
         <v>46</v>
       </c>
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="8">
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="14">
         <v>5</v>
       </c>
-      <c r="F47" s="8" t="s">
+      <c r="F47" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G47" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H47" s="11" t="s">
+      <c r="G47" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H47" s="18" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" ht="17.5" thickBot="1">
       <c r="A48" s="3">
         <v>47</v>
       </c>
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="18" t="s">
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="E48" s="8">
+      <c r="E48" s="14">
         <v>5</v>
       </c>
-      <c r="F48" s="8" t="s">
+      <c r="F48" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="G48" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H48" s="11" t="s">
+      <c r="G48" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H48" s="18" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" ht="17.5" thickBot="1">
       <c r="A49" s="3">
         <v>48</v>
       </c>
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="8">
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="14">
         <v>6</v>
       </c>
-      <c r="F49" s="8" t="s">
+      <c r="F49" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G49" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H49" s="11" t="s">
+      <c r="G49" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H49" s="18" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" ht="17.5" thickBot="1">
       <c r="A50" s="3">
         <v>49</v>
       </c>
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="8">
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="14">
         <v>6</v>
       </c>
-      <c r="F50" s="8" t="s">
+      <c r="F50" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="G50" s="14" t="s">
+      <c r="G50" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="H50" s="13" t="s">
+      <c r="H50" s="20" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" ht="17.5" thickBot="1">
       <c r="A51" s="3">
         <v>50</v>
       </c>
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="8">
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="14">
         <v>6</v>
       </c>
-      <c r="F51" s="8" t="s">
+      <c r="F51" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="G51" s="12" t="s">
+      <c r="G51" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H51" s="11" t="s">
+      <c r="H51" s="18" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" ht="17.5" thickBot="1">
       <c r="A52" s="3">
         <v>51</v>
       </c>
-      <c r="B52" s="17"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="8">
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="14">
         <v>6</v>
       </c>
-      <c r="F52" s="8" t="s">
+      <c r="F52" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="G52" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H52" s="11" t="s">
+      <c r="G52" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H52" s="18" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" ht="17.5" thickBot="1">
       <c r="A53" s="3">
         <v>52</v>
       </c>
-      <c r="B53" s="17"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="8">
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="14">
         <v>6</v>
       </c>
-      <c r="F53" s="8" t="s">
+      <c r="F53" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="G53" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H53" s="13" t="s">
+      <c r="G53" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="H53" s="20" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" ht="17.5" thickBot="1">
       <c r="A54" s="3">
         <v>53</v>
       </c>
-      <c r="B54" s="17"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="8">
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="14">
         <v>6</v>
       </c>
-      <c r="F54" s="8" t="s">
+      <c r="F54" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="G54" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H54" s="11" t="s">
+      <c r="G54" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H54" s="18" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" ht="17.5" thickBot="1">
       <c r="A55" s="3">
         <v>54</v>
       </c>
-      <c r="B55" s="17"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="8">
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="14">
         <v>6</v>
       </c>
-      <c r="F55" s="8" t="s">
+      <c r="F55" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="G55" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H55" s="13" t="s">
+      <c r="G55" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H55" s="20" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" ht="17.5" thickBot="1">
       <c r="A56" s="3">
         <v>55</v>
       </c>
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="8">
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="14">
         <v>6</v>
       </c>
-      <c r="F56" s="8" t="s">
+      <c r="F56" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="G56" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H56" s="11" t="s">
+      <c r="G56" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H56" s="18" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" ht="17.5" thickBot="1">
       <c r="A57" s="3">
         <v>56</v>
       </c>
-      <c r="B57" s="17"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="8">
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="14">
         <v>6</v>
       </c>
-      <c r="F57" s="8" t="s">
+      <c r="F57" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="G57" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H57" s="11" t="s">
+      <c r="G57" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H57" s="18" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" ht="17.5" thickBot="1">
       <c r="A58" s="3">
         <v>57</v>
       </c>
-      <c r="B58" s="17"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="8">
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="14">
         <v>6</v>
       </c>
-      <c r="F58" s="8" t="s">
+      <c r="F58" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="G58" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H58" s="11" t="s">
+      <c r="G58" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H58" s="18" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" ht="17.5" thickBot="1">
       <c r="A59" s="3">
         <v>58</v>
       </c>
-      <c r="B59" s="17"/>
-      <c r="C59" s="17"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="8">
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="14">
         <v>6</v>
       </c>
-      <c r="F59" s="8" t="s">
+      <c r="F59" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="G59" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H59" s="13" t="s">
+      <c r="G59" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H59" s="20" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" ht="17.5" thickBot="1">
       <c r="A60" s="3">
         <v>59</v>
       </c>
-      <c r="B60" s="17"/>
-      <c r="C60" s="6" t="s">
+      <c r="B60" s="9"/>
+      <c r="C60" s="5" t="s">
         <v>84</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H60" s="5" t="s">
+      <c r="E60" s="17"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="17"/>
+      <c r="H60" s="17" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" ht="17.5" thickBot="1">
       <c r="A61" s="3">
         <v>60</v>
       </c>
-      <c r="B61" s="17"/>
-      <c r="D61" s="18" t="s">
+      <c r="B61" s="9"/>
+      <c r="D61" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E61" s="15">
+      <c r="E61" s="22">
         <v>6</v>
       </c>
-      <c r="F61" s="12" t="s">
+      <c r="F61" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="G61" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H61" s="13" t="s">
+      <c r="G61" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="H61" s="20" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" ht="17.5" thickBot="1">
       <c r="A62" s="3">
         <v>61</v>
       </c>
-      <c r="B62" s="17"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="8">
+      <c r="B62" s="9"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="14">
         <v>7</v>
       </c>
-      <c r="F62" s="8" t="s">
+      <c r="F62" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G62" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H62" s="11" t="s">
+      <c r="G62" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H62" s="18" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" ht="17.5" thickBot="1">
       <c r="A63" s="3">
         <v>62</v>
       </c>
-      <c r="B63" s="17"/>
-      <c r="D63" s="19"/>
-      <c r="E63" s="8">
+      <c r="B63" s="9"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="14">
         <v>7</v>
       </c>
-      <c r="F63" s="8" t="s">
+      <c r="F63" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="G63" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H63" s="13" t="s">
+      <c r="G63" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H63" s="20" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" ht="17.5" thickBot="1">
       <c r="A64" s="3">
         <v>63</v>
       </c>
-      <c r="B64" s="17"/>
-      <c r="D64" s="19"/>
-      <c r="E64" s="8">
+      <c r="B64" s="9"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="14">
         <v>7</v>
       </c>
-      <c r="F64" s="12" t="s">
+      <c r="F64" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="G64" s="12" t="s">
+      <c r="G64" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H64" s="11" t="s">
+      <c r="H64" s="18" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" ht="17.5" thickBot="1">
       <c r="A65" s="3">
         <v>64</v>
       </c>
-      <c r="B65" s="17"/>
-      <c r="D65" s="19"/>
-      <c r="E65" s="8">
+      <c r="B65" s="9"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="14">
         <v>7</v>
       </c>
-      <c r="F65" s="12" t="s">
+      <c r="F65" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="G65" s="12" t="s">
+      <c r="G65" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H65" s="13" t="s">
+      <c r="H65" s="20" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" ht="17.5" thickBot="1">
       <c r="A66" s="3">
         <v>65</v>
       </c>
-      <c r="B66" s="17"/>
-      <c r="D66" s="19"/>
-      <c r="E66" s="8">
+      <c r="B66" s="9"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="14">
         <v>7</v>
       </c>
-      <c r="F66" s="8" t="s">
+      <c r="F66" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="G66" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H66" s="13" t="s">
+      <c r="G66" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H66" s="20" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" ht="17.5" thickBot="1">
       <c r="A67" s="3">
         <v>66</v>
       </c>
-      <c r="B67" s="17"/>
-      <c r="D67" s="19"/>
-      <c r="E67" s="8">
+      <c r="B67" s="9"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="14">
         <v>7</v>
       </c>
-      <c r="F67" s="8" t="s">
+      <c r="F67" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G67" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H67" s="11" t="s">
+      <c r="G67" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H67" s="18" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" ht="17.5" thickBot="1">
       <c r="A68" s="3">
         <v>67</v>
       </c>
-      <c r="B68" s="17"/>
-      <c r="D68" s="18" t="s">
+      <c r="B68" s="9"/>
+      <c r="D68" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E68" s="8">
+      <c r="E68" s="14">
         <v>7</v>
       </c>
-      <c r="F68" s="8" t="s">
+      <c r="F68" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="G68" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H68" s="11" t="s">
+      <c r="G68" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H68" s="18" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" ht="17.5" thickBot="1">
       <c r="A69" s="3">
         <v>68</v>
       </c>
-      <c r="B69" s="17"/>
-      <c r="D69" s="19"/>
-      <c r="E69" s="8">
+      <c r="B69" s="9"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="14">
         <v>7</v>
       </c>
-      <c r="F69" s="8" t="s">
+      <c r="F69" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G69" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H69" s="11" t="s">
+      <c r="G69" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H69" s="18" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" ht="17.5" thickBot="1">
       <c r="A70" s="3">
         <v>69</v>
       </c>
-      <c r="B70" s="17"/>
-      <c r="D70" s="19"/>
-      <c r="E70" s="8">
+      <c r="B70" s="9"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="14">
         <v>8</v>
       </c>
-      <c r="F70" s="8" t="s">
+      <c r="F70" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="G70" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H70" s="11" t="s">
+      <c r="G70" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H70" s="18" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" ht="17.5" thickBot="1">
       <c r="A71" s="3">
         <v>70</v>
       </c>
-      <c r="B71" s="17"/>
-      <c r="D71" s="19"/>
-      <c r="E71" s="8">
+      <c r="B71" s="9"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="14">
         <v>8</v>
       </c>
-      <c r="F71" s="8" t="s">
+      <c r="F71" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="G71" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H71" s="11" t="s">
+      <c r="G71" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H71" s="18" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" ht="17.5" thickBot="1">
       <c r="A72" s="3">
         <v>71</v>
       </c>
-      <c r="B72" s="17"/>
-      <c r="D72" s="19"/>
-      <c r="E72" s="8">
+      <c r="B72" s="9"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="14">
         <v>8</v>
       </c>
-      <c r="F72" s="8" t="s">
+      <c r="F72" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="G72" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H72" s="11" t="s">
+      <c r="G72" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H72" s="18" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" ht="17.5" thickBot="1">
       <c r="A73" s="3">
         <v>72</v>
       </c>
-      <c r="B73" s="17"/>
-      <c r="D73" s="19"/>
-      <c r="E73" s="8">
+      <c r="B73" s="9"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="14">
         <v>8</v>
       </c>
-      <c r="F73" s="8" t="s">
+      <c r="F73" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="G73" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H73" s="11" t="s">
+      <c r="G73" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H73" s="18" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" ht="17.5" thickBot="1">
       <c r="A74" s="3">
         <v>73</v>
       </c>
-      <c r="B74" s="17"/>
-      <c r="D74" s="19"/>
-      <c r="E74" s="8">
+      <c r="B74" s="9"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="14">
         <v>8</v>
       </c>
-      <c r="F74" s="8" t="s">
+      <c r="F74" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G74" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H74" s="11" t="s">
+      <c r="G74" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H74" s="18" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" ht="17.5" thickBot="1">
       <c r="A75" s="3">
         <v>74</v>
       </c>
-      <c r="B75" s="17"/>
-      <c r="D75" s="19"/>
-      <c r="E75" s="8">
+      <c r="B75" s="9"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="14">
         <v>8</v>
       </c>
-      <c r="F75" s="8" t="s">
+      <c r="F75" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="G75" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H75" s="11" t="s">
+      <c r="G75" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H75" s="18" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" ht="17.5" thickBot="1">
       <c r="A76" s="3">
         <v>75</v>
       </c>
-      <c r="B76" s="17"/>
-      <c r="D76" s="19"/>
-      <c r="E76" s="8">
+      <c r="B76" s="9"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="14">
         <v>8</v>
       </c>
-      <c r="F76" s="8" t="s">
+      <c r="F76" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G76" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H76" s="11" t="s">
+      <c r="G76" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H76" s="18" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" ht="17.5" thickBot="1">
       <c r="A77" s="3">
         <v>76</v>
       </c>
-      <c r="B77" s="17"/>
-      <c r="D77" s="19"/>
-      <c r="E77" s="8">
+      <c r="B77" s="9"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="14">
         <v>8</v>
       </c>
-      <c r="F77" s="8" t="s">
+      <c r="F77" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="G77" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H77" s="11" t="s">
+      <c r="G77" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H77" s="18" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" ht="17.5" thickBot="1">
       <c r="A78" s="3">
         <v>77</v>
       </c>
-      <c r="B78" s="17"/>
-      <c r="D78" s="19"/>
-      <c r="E78" s="8">
+      <c r="B78" s="9"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="14">
         <v>8</v>
       </c>
-      <c r="F78" s="8" t="s">
+      <c r="F78" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="G78" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H78" s="11" t="s">
+      <c r="G78" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H78" s="18" t="s">
         <v>105</v>
       </c>
     </row>

--- a/Assets/Dialogs/DialogDB_Pink.xlsx
+++ b/Assets/Dialogs/DialogDB_Pink.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\230831_2146\LGHNH_Project\Assets\Dialogs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\230913_1622\LGHNH_Project\Assets\Dialogs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75079F4D-E3B6-47A4-8738-B8C306B9DEE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{593E1FE4-71A1-4A12-B4B8-B977DFE3A1C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{7CC1A35C-F74C-4129-8D27-6AD00BFB75AA}"/>
+    <workbookView xWindow="2620" yWindow="2620" windowWidth="19200" windowHeight="11170" xr2:uid="{7CC1A35C-F74C-4129-8D27-6AD00BFB75AA}"/>
   </bookViews>
   <sheets>
     <sheet name="pink" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="109">
   <si>
     <t>순번</t>
   </si>
@@ -65,18 +65,12 @@
     <t>수락(자동)</t>
   </si>
   <si>
-    <t>기본</t>
-  </si>
-  <si>
     <t>???</t>
   </si>
   <si>
     <t>리비</t>
   </si>
   <si>
-    <t>우울</t>
-  </si>
-  <si>
     <t>완료(자동)</t>
   </si>
   <si>
@@ -233,9 +227,6 @@
     <t>자네들이 고생이 많구먼, 쿨럭.</t>
   </si>
   <si>
-    <t>안녕하세요. 저는 여행아이 [닉네임]이라고 합니다.</t>
-  </si>
-  <si>
     <t>오오, 여행아이님. 만나뵙게 되어 몹시 기쁩니다.</t>
   </si>
   <si>
@@ -357,13 +348,108 @@
   </si>
   <si>
     <t>여행아이</t>
+  </si>
+  <si>
+    <t>Sad</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>안녕하세요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>저는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>여행아이라고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>합니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>npc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -447,6 +533,26 @@
       <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -480,7 +586,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -529,13 +635,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -560,6 +695,57 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -571,42 +757,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -922,10 +1072,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56AFC252-D377-40F1-81FE-416CE32D48DC}">
-  <dimension ref="A1:H78"/>
+  <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="H77" sqref="H77"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -938,7 +1088,7 @@
     <col min="8" max="8" width="87.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.5" thickBot="1">
+    <row r="1" spans="1:9" ht="17.5" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -963,1545 +1113,1641 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="17.5" thickBot="1">
+      <c r="I1" s="20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17.5" thickBot="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="8">
+        <v>1</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="H2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="12">
-        <v>1</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="17.5" thickBot="1">
+    </row>
+    <row r="3" spans="1:9" ht="17.5" thickBot="1">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="14">
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="10">
         <v>1</v>
       </c>
-      <c r="F3" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="17.5" thickBot="1">
+      <c r="F3" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="17.5" thickBot="1">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="14">
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="10">
         <v>1</v>
       </c>
-      <c r="F4" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="17.5" thickBot="1">
+      <c r="F4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="17.5" thickBot="1">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="14">
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="10">
         <v>1</v>
       </c>
-      <c r="F5" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="17.5" thickBot="1">
+      <c r="F5" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="17.5" thickBot="1">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="14">
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="10">
         <v>1</v>
       </c>
-      <c r="F6" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="17.5" thickBot="1">
+      <c r="F6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="17.5" thickBot="1">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="14">
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="10">
         <v>1</v>
       </c>
-      <c r="F7" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="17.5" thickBot="1">
+      <c r="F7" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="17.5" thickBot="1">
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="14">
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="10">
         <v>1</v>
       </c>
-      <c r="F8" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="17.5" thickBot="1">
+      <c r="F8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="17.5" thickBot="1">
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="14">
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="10">
         <v>1</v>
       </c>
-      <c r="F9" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="17.5" thickBot="1">
+      <c r="F9" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="17.5" thickBot="1">
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="14">
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="10">
         <v>1</v>
       </c>
-      <c r="F10" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="17.5" thickBot="1">
+      <c r="F10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="17.5" thickBot="1">
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="14">
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="10">
         <v>2</v>
       </c>
-      <c r="F11" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="17.5" thickBot="1">
+      <c r="F11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="17.5" thickBot="1">
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="14">
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="10">
         <v>2</v>
       </c>
-      <c r="F12" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="17.5" thickBot="1">
+      <c r="F12" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="17.5" thickBot="1">
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="8" t="s">
-        <v>29</v>
+      <c r="B13" s="26"/>
+      <c r="C13" s="25" t="s">
+        <v>27</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="17.5" thickBot="1">
+        <v>12</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="17.5" thickBot="1">
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="14">
+      <c r="E14" s="10">
         <v>3</v>
       </c>
-      <c r="F14" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="17.5" thickBot="1">
+      <c r="F14" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="17.5" thickBot="1">
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
       <c r="D15" s="6"/>
-      <c r="E15" s="14">
+      <c r="E15" s="10">
         <v>3</v>
       </c>
-      <c r="F15" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="14" t="s">
+      <c r="F15" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H15" s="18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="17.5" thickBot="1">
+      <c r="G15" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="17.5" thickBot="1">
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="14">
+      <c r="E16" s="10">
         <v>3</v>
       </c>
-      <c r="F16" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="14" t="s">
+      <c r="F16" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H16" s="15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="17.5" thickBot="1">
+      <c r="G16" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" s="21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="17.5" thickBot="1">
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
       <c r="D17" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="10">
         <v>3</v>
       </c>
-      <c r="F17" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="14" t="s">
+      <c r="F17" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H17" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="17.5" thickBot="1">
+      <c r="G17" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="17.5" thickBot="1">
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
       <c r="D18" s="6"/>
-      <c r="E18" s="14">
+      <c r="E18" s="10">
         <v>3</v>
       </c>
-      <c r="F18" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="17.5" thickBot="1">
+      <c r="F18" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="17.5" thickBot="1">
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
       <c r="D19" s="6"/>
-      <c r="E19" s="14">
+      <c r="E19" s="10">
         <v>3</v>
       </c>
-      <c r="F19" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="17.5" thickBot="1">
+      <c r="F19" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="17.5" thickBot="1">
       <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
       <c r="D20" s="6"/>
-      <c r="E20" s="14">
+      <c r="E20" s="10">
         <v>3</v>
       </c>
-      <c r="F20" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="17.5" thickBot="1">
+      <c r="F20" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="17.5" thickBot="1">
       <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
       <c r="D21" s="6"/>
-      <c r="E21" s="14">
+      <c r="E21" s="10">
         <v>3</v>
       </c>
-      <c r="F21" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" s="14" t="s">
+      <c r="F21" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H21" s="15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="17.5" thickBot="1">
+      <c r="G21" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I21" s="21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="17.5" thickBot="1">
       <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
       <c r="D22" s="6"/>
-      <c r="E22" s="14">
+      <c r="E22" s="10">
         <v>3</v>
       </c>
-      <c r="F22" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H22" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="17.5" thickBot="1">
+      <c r="F22" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="17.5" thickBot="1">
       <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
       <c r="D23" s="6"/>
-      <c r="E23" s="14">
+      <c r="E23" s="10">
         <v>3</v>
       </c>
-      <c r="F23" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H23" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="17.5" thickBot="1">
+      <c r="F23" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="17.5" thickBot="1">
       <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="14">
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="10">
         <v>3</v>
       </c>
-      <c r="F24" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H24" s="15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="17.5" thickBot="1">
+      <c r="F24" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="17.5" thickBot="1">
       <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="14">
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="10">
         <v>4</v>
       </c>
-      <c r="F25" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="G25" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H25" s="15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="17.5" thickBot="1">
+      <c r="F25" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="17.5" thickBot="1">
       <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="14">
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="10">
         <v>4</v>
       </c>
-      <c r="F26" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H26" s="15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="17.5" thickBot="1">
+      <c r="F26" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="17.5" thickBot="1">
       <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="14">
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="10">
         <v>4</v>
       </c>
-      <c r="F27" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="G27" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="H27" s="16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="17.5" thickBot="1">
+      <c r="F27" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I27" s="22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="17.5" thickBot="1">
       <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="14">
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="10">
         <v>4</v>
       </c>
-      <c r="F28" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="G28" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H28" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="17.5" thickBot="1">
+      <c r="F28" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="17.5" thickBot="1">
       <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="14">
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="10">
         <v>4</v>
       </c>
-      <c r="F29" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="G29" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H29" s="15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="17.5" thickBot="1">
+      <c r="F29" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I29" s="22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="17.5" thickBot="1">
       <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="14">
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="10">
         <v>4</v>
       </c>
-      <c r="F30" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="G30" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H30" s="15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="17.5" thickBot="1">
+      <c r="F30" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" s="22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="17.5" thickBot="1">
       <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D31" s="10"/>
-      <c r="E31" s="14">
+      <c r="B31" s="26"/>
+      <c r="C31" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" s="27"/>
+      <c r="E31" s="10">
         <v>4</v>
       </c>
-      <c r="F31" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="G31" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H31" s="15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="17.5" thickBot="1">
+      <c r="F31" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="17.5" thickBot="1">
       <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E32" s="14">
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="10">
         <v>4</v>
       </c>
-      <c r="F32" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="G32" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H32" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="17.5" thickBot="1">
+      <c r="F32" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="17.5" thickBot="1">
       <c r="A33" s="3">
         <v>32</v>
       </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="14">
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="10">
         <v>5</v>
       </c>
-      <c r="F33" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="G33" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H33" s="16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="17.5" thickBot="1">
+      <c r="F33" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="17.5" thickBot="1">
       <c r="A34" s="3">
         <v>33</v>
       </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="14">
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="10">
         <v>5</v>
       </c>
-      <c r="F34" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="G34" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H34" s="18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="17.5" thickBot="1">
+      <c r="F34" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H34" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="17.5" thickBot="1">
       <c r="A35" s="3">
         <v>34</v>
       </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="14">
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="10">
         <v>5</v>
       </c>
-      <c r="F35" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="G35" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H35" s="18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="17.5" thickBot="1">
+      <c r="F35" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H35" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="I35" s="22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="17.5" thickBot="1">
       <c r="A36" s="3">
         <v>35</v>
       </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="14">
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="10">
         <v>5</v>
       </c>
-      <c r="F36" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="G36" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H36" s="18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="17.5" thickBot="1">
+      <c r="F36" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H36" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="I36" s="22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="17.5" thickBot="1">
       <c r="A37" s="3">
         <v>36</v>
       </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="14">
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="10">
         <v>5</v>
       </c>
-      <c r="F37" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H37" s="18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="17.5" thickBot="1">
+      <c r="F37" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H37" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="17.5" thickBot="1">
       <c r="A38" s="3">
         <v>37</v>
       </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="14">
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="10">
         <v>5</v>
       </c>
-      <c r="F38" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="G38" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H38" s="18" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="17.5" thickBot="1">
+      <c r="F38" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H38" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="I38" s="22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="17.5" thickBot="1">
       <c r="A39" s="3">
         <v>38</v>
       </c>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="14">
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="10">
         <v>5</v>
       </c>
-      <c r="F39" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="G39" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H39" s="20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="17.5" thickBot="1">
+      <c r="F39" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="H39" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="I39" s="23" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="17.5" thickBot="1">
       <c r="A40" s="3">
         <v>39</v>
       </c>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="14">
+      <c r="B40" s="26"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="10">
         <v>5</v>
       </c>
-      <c r="F40" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="G40" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H40" s="18" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="17.5" thickBot="1">
+      <c r="F40" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H40" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="I40" s="23" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="17.5" thickBot="1">
       <c r="A41" s="3">
         <v>40</v>
       </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="14">
+      <c r="B41" s="26"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="10">
         <v>5</v>
       </c>
-      <c r="F41" s="14" t="s">
-        <v>60</v>
+      <c r="F41" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="G41" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H41" s="18" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="17.5" thickBot="1">
+        <v>104</v>
+      </c>
+      <c r="H41" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="I41" s="23" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="17.5" thickBot="1">
       <c r="A42" s="3">
         <v>41</v>
       </c>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="14">
+      <c r="B42" s="26"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="10">
         <v>5</v>
       </c>
-      <c r="F42" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="G42" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="H42" s="20" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="17.5" thickBot="1">
+      <c r="F42" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H42" s="24" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="17.5" thickBot="1">
       <c r="A43" s="3">
         <v>42</v>
       </c>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="14">
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="10">
         <v>5</v>
       </c>
-      <c r="F43" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="G43" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H43" s="18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="17.5" thickBot="1">
+      <c r="F43" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="H43" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="I43" s="23" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="17.5" thickBot="1">
       <c r="A44" s="3">
         <v>43</v>
       </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="14">
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="10">
         <v>5</v>
       </c>
-      <c r="F44" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="G44" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H44" s="18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="17.5" thickBot="1">
+      <c r="F44" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="H44" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="17.5" thickBot="1">
       <c r="A45" s="3">
         <v>44</v>
       </c>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="14">
+      <c r="B45" s="26"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="10">
         <v>5</v>
       </c>
-      <c r="F45" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="G45" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H45" s="20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="17.5" thickBot="1">
+      <c r="F45" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="H45" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="I45" s="23" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="17.5" thickBot="1">
       <c r="A46" s="3">
         <v>45</v>
       </c>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="14">
+      <c r="B46" s="26"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="10">
         <v>5</v>
       </c>
-      <c r="F46" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="G46" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H46" s="20" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="17.5" thickBot="1">
+      <c r="F46" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H46" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="17.5" thickBot="1">
       <c r="A47" s="3">
         <v>46</v>
       </c>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="14">
+      <c r="B47" s="26"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="10">
         <v>5</v>
       </c>
-      <c r="F47" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H47" s="18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="17.5" thickBot="1">
+      <c r="F47" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H47" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="17.5" thickBot="1">
       <c r="A48" s="3">
         <v>47</v>
       </c>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E48" s="14">
+      <c r="B48" s="26"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="E48" s="10">
         <v>5</v>
       </c>
-      <c r="F48" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="G48" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H48" s="18" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="17.5" thickBot="1">
+      <c r="F48" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H48" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="17.5" thickBot="1">
       <c r="A49" s="3">
         <v>48</v>
       </c>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="14">
+      <c r="B49" s="26"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="10">
         <v>6</v>
       </c>
-      <c r="F49" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H49" s="18" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="17.5" thickBot="1">
+      <c r="F49" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H49" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="17.5" thickBot="1">
       <c r="A50" s="3">
         <v>49</v>
       </c>
-      <c r="B50" s="9"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="14">
+      <c r="B50" s="26"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="10">
         <v>6</v>
       </c>
-      <c r="F50" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="G50" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="H50" s="20" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="17.5" thickBot="1">
+      <c r="F50" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="H50" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="I50" s="22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="17.5" thickBot="1">
       <c r="A51" s="3">
         <v>50</v>
       </c>
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="14">
+      <c r="B51" s="26"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="10">
         <v>6</v>
       </c>
-      <c r="F51" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="G51" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H51" s="18" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="17.5" thickBot="1">
+      <c r="F51" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="H51" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="I51" s="22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="17.5" thickBot="1">
       <c r="A52" s="3">
         <v>51</v>
       </c>
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="14">
+      <c r="B52" s="26"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="10">
         <v>6</v>
       </c>
-      <c r="F52" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="G52" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H52" s="18" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="17.5" thickBot="1">
+      <c r="F52" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H52" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="I52" s="22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="17.5" thickBot="1">
       <c r="A53" s="3">
         <v>52</v>
       </c>
-      <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="14">
+      <c r="B53" s="26"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="10">
         <v>6</v>
       </c>
-      <c r="F53" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="G53" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="H53" s="20" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="17.5" thickBot="1">
+      <c r="F53" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H53" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="I53" s="23" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="17.5" thickBot="1">
       <c r="A54" s="3">
         <v>53</v>
       </c>
-      <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="14">
+      <c r="B54" s="26"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="10">
         <v>6</v>
       </c>
-      <c r="F54" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="G54" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H54" s="18" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="17.5" thickBot="1">
+      <c r="F54" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H54" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="17.5" thickBot="1">
       <c r="A55" s="3">
         <v>54</v>
       </c>
-      <c r="B55" s="9"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="14">
+      <c r="B55" s="26"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="10">
         <v>6</v>
       </c>
-      <c r="F55" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="G55" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H55" s="20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="17.5" thickBot="1">
+      <c r="F55" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H55" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="I55" s="23" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="17.5" thickBot="1">
       <c r="A56" s="3">
         <v>55</v>
       </c>
-      <c r="B56" s="9"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="14">
+      <c r="B56" s="26"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="10">
         <v>6</v>
       </c>
-      <c r="F56" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="G56" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H56" s="18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="17.5" thickBot="1">
+      <c r="F56" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H56" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="I56" s="23" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="17.5" thickBot="1">
       <c r="A57" s="3">
         <v>56</v>
       </c>
-      <c r="B57" s="9"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="14">
+      <c r="B57" s="26"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="10">
         <v>6</v>
       </c>
-      <c r="F57" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="G57" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H57" s="18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="17.5" thickBot="1">
+      <c r="F57" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G57" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H57" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="I57" s="23" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="17.5" thickBot="1">
       <c r="A58" s="3">
         <v>57</v>
       </c>
-      <c r="B58" s="9"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="14">
+      <c r="B58" s="26"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="10">
         <v>6</v>
       </c>
-      <c r="F58" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="G58" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H58" s="18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="17.5" thickBot="1">
+      <c r="F58" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="G58" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H58" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="I58" s="23" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="17.5" thickBot="1">
       <c r="A59" s="3">
         <v>58</v>
       </c>
-      <c r="B59" s="9"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="14">
+      <c r="B59" s="26"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="10">
         <v>6</v>
       </c>
-      <c r="F59" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="G59" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H59" s="20" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="17.5" thickBot="1">
+      <c r="F59" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G59" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H59" s="16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="17.5" thickBot="1">
       <c r="A60" s="3">
         <v>59</v>
       </c>
-      <c r="B60" s="9"/>
+      <c r="B60" s="26"/>
       <c r="C60" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E60" s="17"/>
-      <c r="F60" s="17"/>
-      <c r="G60" s="17"/>
-      <c r="H60" s="17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="17.5" thickBot="1">
+        <v>12</v>
+      </c>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I60" s="23" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="17.5" thickBot="1">
       <c r="A61" s="3">
         <v>60</v>
       </c>
-      <c r="B61" s="9"/>
-      <c r="D61" s="10" t="s">
+      <c r="B61" s="26"/>
+      <c r="D61" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="E61" s="22">
+      <c r="E61" s="17">
         <v>6</v>
       </c>
-      <c r="F61" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="G61" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="H61" s="20" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="17.5" thickBot="1">
+      <c r="F61" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="G61" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H61" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="I61" s="23" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="17.5" thickBot="1">
       <c r="A62" s="3">
         <v>61</v>
       </c>
-      <c r="B62" s="9"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="14">
+      <c r="B62" s="26"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="10">
         <v>7</v>
       </c>
-      <c r="F62" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G62" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H62" s="18" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="17.5" thickBot="1">
+      <c r="F62" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H62" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="17.5" thickBot="1">
       <c r="A63" s="3">
         <v>62</v>
       </c>
-      <c r="B63" s="9"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="14">
+      <c r="B63" s="26"/>
+      <c r="D63" s="28"/>
+      <c r="E63" s="10">
         <v>7</v>
       </c>
-      <c r="F63" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="G63" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H63" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="17.5" thickBot="1">
+      <c r="F63" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="G63" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H63" s="16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="17.5" thickBot="1">
       <c r="A64" s="3">
         <v>63</v>
       </c>
-      <c r="B64" s="9"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="14">
+      <c r="B64" s="26"/>
+      <c r="D64" s="28"/>
+      <c r="E64" s="10">
         <v>7</v>
       </c>
-      <c r="F64" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="G64" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H64" s="18" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="17.5" thickBot="1">
+      <c r="F64" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="G64" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="H64" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="I64" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="17.5" thickBot="1">
       <c r="A65" s="3">
         <v>64</v>
       </c>
-      <c r="B65" s="9"/>
-      <c r="D65" s="11"/>
-      <c r="E65" s="14">
+      <c r="B65" s="26"/>
+      <c r="D65" s="28"/>
+      <c r="E65" s="10">
         <v>7</v>
       </c>
-      <c r="F65" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="G65" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H65" s="20" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="17.5" thickBot="1">
+      <c r="F65" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="G65" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="H65" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="I65" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="17.5" thickBot="1">
       <c r="A66" s="3">
         <v>65</v>
       </c>
-      <c r="B66" s="9"/>
-      <c r="D66" s="11"/>
-      <c r="E66" s="14">
+      <c r="B66" s="26"/>
+      <c r="D66" s="28"/>
+      <c r="E66" s="10">
         <v>7</v>
       </c>
-      <c r="F66" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="G66" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H66" s="20" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="17.5" thickBot="1">
+      <c r="F66" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="G66" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H66" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="17.5" thickBot="1">
       <c r="A67" s="3">
         <v>66</v>
       </c>
-      <c r="B67" s="9"/>
-      <c r="D67" s="11"/>
-      <c r="E67" s="14">
+      <c r="B67" s="26"/>
+      <c r="D67" s="28"/>
+      <c r="E67" s="10">
         <v>7</v>
       </c>
-      <c r="F67" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G67" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H67" s="18" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="17.5" thickBot="1">
+      <c r="F67" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H67" s="14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="17.5" thickBot="1">
       <c r="A68" s="3">
         <v>67</v>
       </c>
-      <c r="B68" s="9"/>
-      <c r="D68" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E68" s="14">
+      <c r="B68" s="26"/>
+      <c r="D68" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" s="10">
         <v>7</v>
       </c>
-      <c r="F68" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="G68" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H68" s="18" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="17.5" thickBot="1">
+      <c r="F68" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="G68" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H68" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="17.5" thickBot="1">
       <c r="A69" s="3">
         <v>68</v>
       </c>
-      <c r="B69" s="9"/>
-      <c r="D69" s="11"/>
-      <c r="E69" s="14">
+      <c r="B69" s="26"/>
+      <c r="D69" s="28"/>
+      <c r="E69" s="10">
         <v>7</v>
       </c>
-      <c r="F69" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G69" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H69" s="18" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="17.5" thickBot="1">
+      <c r="F69" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G69" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H69" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="17.5" thickBot="1">
       <c r="A70" s="3">
         <v>69</v>
       </c>
-      <c r="B70" s="9"/>
-      <c r="D70" s="11"/>
-      <c r="E70" s="14">
+      <c r="B70" s="26"/>
+      <c r="D70" s="28"/>
+      <c r="E70" s="10">
         <v>8</v>
       </c>
-      <c r="F70" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="G70" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H70" s="18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="17.5" thickBot="1">
+      <c r="F70" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G70" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H70" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="I70" s="22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="17.5" thickBot="1">
       <c r="A71" s="3">
         <v>70</v>
       </c>
-      <c r="B71" s="9"/>
-      <c r="D71" s="11"/>
-      <c r="E71" s="14">
+      <c r="B71" s="26"/>
+      <c r="D71" s="28"/>
+      <c r="E71" s="10">
         <v>8</v>
       </c>
-      <c r="F71" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="G71" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H71" s="18" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="17.5" thickBot="1">
+      <c r="F71" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="G71" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H71" s="14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="17.5" thickBot="1">
       <c r="A72" s="3">
         <v>71</v>
       </c>
-      <c r="B72" s="9"/>
-      <c r="D72" s="11"/>
-      <c r="E72" s="14">
+      <c r="B72" s="26"/>
+      <c r="D72" s="28"/>
+      <c r="E72" s="10">
         <v>8</v>
       </c>
-      <c r="F72" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="G72" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H72" s="18" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="17.5" thickBot="1">
+      <c r="F72" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G72" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H72" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="I72" s="22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="17.5" thickBot="1">
       <c r="A73" s="3">
         <v>72</v>
       </c>
-      <c r="B73" s="9"/>
-      <c r="D73" s="11"/>
-      <c r="E73" s="14">
+      <c r="B73" s="26"/>
+      <c r="D73" s="28"/>
+      <c r="E73" s="10">
         <v>8</v>
       </c>
-      <c r="F73" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="G73" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H73" s="18" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="17.5" thickBot="1">
+      <c r="F73" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="G73" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H73" s="14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="17.5" thickBot="1">
       <c r="A74" s="3">
         <v>73</v>
       </c>
-      <c r="B74" s="9"/>
-      <c r="D74" s="11"/>
-      <c r="E74" s="14">
+      <c r="B74" s="26"/>
+      <c r="D74" s="28"/>
+      <c r="E74" s="10">
         <v>8</v>
       </c>
-      <c r="F74" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G74" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H74" s="18" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="17.5" thickBot="1">
+      <c r="F74" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G74" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H74" s="14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="17.5" thickBot="1">
       <c r="A75" s="3">
         <v>74</v>
       </c>
-      <c r="B75" s="9"/>
-      <c r="D75" s="11"/>
-      <c r="E75" s="14">
+      <c r="B75" s="26"/>
+      <c r="D75" s="28"/>
+      <c r="E75" s="10">
         <v>8</v>
       </c>
-      <c r="F75" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="G75" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H75" s="18" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="17.5" thickBot="1">
+      <c r="F75" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G75" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H75" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="I75" s="22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="17.5" thickBot="1">
       <c r="A76" s="3">
         <v>75</v>
       </c>
-      <c r="B76" s="9"/>
-      <c r="D76" s="11"/>
-      <c r="E76" s="14">
+      <c r="B76" s="26"/>
+      <c r="D76" s="28"/>
+      <c r="E76" s="10">
         <v>8</v>
       </c>
-      <c r="F76" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G76" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H76" s="18" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="17.5" thickBot="1">
+      <c r="F76" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G76" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H76" s="14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="17.5" thickBot="1">
       <c r="A77" s="3">
         <v>76</v>
       </c>
-      <c r="B77" s="9"/>
-      <c r="D77" s="11"/>
-      <c r="E77" s="14">
+      <c r="B77" s="26"/>
+      <c r="D77" s="28"/>
+      <c r="E77" s="10">
         <v>8</v>
       </c>
-      <c r="F77" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="G77" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H77" s="18" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="17.5" thickBot="1">
+      <c r="F77" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G77" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H77" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="I77" s="22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="17.5" thickBot="1">
       <c r="A78" s="3">
         <v>77</v>
       </c>
-      <c r="B78" s="9"/>
-      <c r="D78" s="11"/>
-      <c r="E78" s="14">
+      <c r="B78" s="26"/>
+      <c r="D78" s="28"/>
+      <c r="E78" s="10">
         <v>8</v>
       </c>
-      <c r="F78" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="G78" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H78" s="18" t="s">
-        <v>105</v>
+      <c r="F78" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="G78" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H78" s="14" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
